--- a/biology/Médecine/Engelure/Engelure.xlsx
+++ b/biology/Médecine/Engelure/Engelure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les engelures, également appelées perniose, froidure, pernion, ou érythème pernio, sont un type de blessure par le froid qui se traduit par des zones cutanées rouges, démangeaisons et tendres[2],[6]. Moins fréquemment, des cloques et des ulcérations peuvent survenir[6]. Les doigts, les orteils, les oreilles et les joues sont les plus souvent touchés[6].
-Les engelures surviennent généralement en raison d'une exposition prolongée au froid[1],[5]. La froideur, cependant, est inférieur au gel, ce qui entraînerait des gelures[1]. Les facteurs de risque comprennent le lupus, le tabagisme, les antécédents familiaux et le syndrome de Raynaud[2]. Le mécanisme sous-jacent comporte l'inflammation des petits vaisseaux sanguins[2],[6]. Le diagnostic est généralement fondé sur les symptômes et l'examen[3].
-La prévention consiste généralement à garder les mains et les pieds au chaud[2]. D'autres mesures peuvent consister à éviter la caféine et éventuellement à prendre de la nifédipine[2]. Le traitement peut impliquer l'utilisation des crèmes corticostéroïdes[2]. Cela peut prendre un à deux semaines pour qu'un épisode se résorbe[2].
-Les engelures sont relativement courantes dans les régions du monde à climat froid[5]. Les jeunes et les âgés sont les plus touchés[2]. Les femmes sont plus fréquemment touchées que les hommes[5]. La condition a été décrite depuis au moins le Ier siècle par Pedanius Dioscorides d'Anazarbus[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les engelures, également appelées perniose, froidure, pernion, ou érythème pernio, sont un type de blessure par le froid qui se traduit par des zones cutanées rouges, démangeaisons et tendres,. Moins fréquemment, des cloques et des ulcérations peuvent survenir. Les doigts, les orteils, les oreilles et les joues sont les plus souvent touchés.
+Les engelures surviennent généralement en raison d'une exposition prolongée au froid,. La froideur, cependant, est inférieur au gel, ce qui entraînerait des gelures. Les facteurs de risque comprennent le lupus, le tabagisme, les antécédents familiaux et le syndrome de Raynaud. Le mécanisme sous-jacent comporte l'inflammation des petits vaisseaux sanguins,. Le diagnostic est généralement fondé sur les symptômes et l'examen.
+La prévention consiste généralement à garder les mains et les pieds au chaud. D'autres mesures peuvent consister à éviter la caféine et éventuellement à prendre de la nifédipine. Le traitement peut impliquer l'utilisation des crèmes corticostéroïdes. Cela peut prendre un à deux semaines pour qu'un épisode se résorbe.
+Les engelures sont relativement courantes dans les régions du monde à climat froid. Les jeunes et les âgés sont les plus touchés. Les femmes sont plus fréquemment touchées que les hommes. La condition a été décrite depuis au moins le Ier siècle par Pedanius Dioscorides d'Anazarbus.
 </t>
         </is>
       </c>
